--- a/inst/app_demo/HPFC/manual/manual_fwd_pwr.xlsx
+++ b/inst/app_demo/HPFC/manual/manual_fwd_pwr.xlsx
@@ -1,29 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CG13879\Documents\GitHub\HPFC\HPFC-Package\inst\app_demo\HPFC\manual\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95CCFF3-55CD-4123-87E8-4721A1039ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Greece" sheetId="1" r:id="rId1"/>
+    <sheet name="Germany" sheetId="3" r:id="rId2"/>
+    <sheet name="Hungary" sheetId="4" r:id="rId3"/>
+    <sheet name="France" sheetId="5" r:id="rId4"/>
+    <sheet name="Spain" sheetId="6" r:id="rId5"/>
+    <sheet name="Uk" sheetId="7" r:id="rId6"/>
+    <sheet name="Bulgaria" sheetId="8" r:id="rId7"/>
+    <sheet name="Italy" sheetId="9" r:id="rId8"/>
+    <sheet name="Romania" sheetId="10" r:id="rId9"/>
+    <sheet name="Czech Republic" sheetId="11" r:id="rId10"/>
+    <sheet name="Serbia" sheetId="12" r:id="rId11"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="4">
   <si>
-    <t xml:space="preserve">sim</t>
+    <t>sim</t>
   </si>
   <si>
-    <t xml:space="preserve">yymm</t>
+    <t>yymm</t>
   </si>
   <si>
-    <t xml:space="preserve">value</t>
+    <t>value</t>
   </si>
   <si>
-    <t xml:space="preserve">FWD</t>
+    <t>FWD</t>
   </si>
 </sst>
 </file>
@@ -31,9 +62,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -69,12 +100,21 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -356,14 +396,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -374,140 +414,1720 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>45292</v>
       </c>
-      <c r="C2" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="C2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>45323</v>
       </c>
-      <c r="C3" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="C3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>45352</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>240</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="1">
         <v>45383</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>260</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>45413</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>240</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="1">
         <v>45444</v>
       </c>
-      <c r="C7" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="C7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="1">
         <v>45474</v>
       </c>
-      <c r="C8" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="C8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="1">
         <v>45505</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>180</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="1">
         <v>45536</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>160</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="1">
         <v>45566</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>180</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="1">
         <v>45597</v>
       </c>
-      <c r="C12" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="C12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="1">
         <v>45627</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>220</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC30532-74C0-4EA2-B56E-AE90058D1C0D}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45292</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45323</v>
+      </c>
+      <c r="C3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45352</v>
+      </c>
+      <c r="C4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45383</v>
+      </c>
+      <c r="C5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45413</v>
+      </c>
+      <c r="C6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45444</v>
+      </c>
+      <c r="C7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45474</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45505</v>
+      </c>
+      <c r="C9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45536</v>
+      </c>
+      <c r="C10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45566</v>
+      </c>
+      <c r="C11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45597</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45627</v>
+      </c>
+      <c r="C13">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB308240-FC75-44E6-8DB6-F9A6C9091DF4}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45292</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45323</v>
+      </c>
+      <c r="C3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45352</v>
+      </c>
+      <c r="C4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45383</v>
+      </c>
+      <c r="C5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45413</v>
+      </c>
+      <c r="C6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45444</v>
+      </c>
+      <c r="C7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45474</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45505</v>
+      </c>
+      <c r="C9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45536</v>
+      </c>
+      <c r="C10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45566</v>
+      </c>
+      <c r="C11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45597</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45627</v>
+      </c>
+      <c r="C13">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE85965-1F5C-41A2-AA03-7CF9C1EAD528}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45292</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45323</v>
+      </c>
+      <c r="C3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45352</v>
+      </c>
+      <c r="C4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45383</v>
+      </c>
+      <c r="C5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45413</v>
+      </c>
+      <c r="C6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45444</v>
+      </c>
+      <c r="C7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45474</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45505</v>
+      </c>
+      <c r="C9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45536</v>
+      </c>
+      <c r="C10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45566</v>
+      </c>
+      <c r="C11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45597</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45627</v>
+      </c>
+      <c r="C13">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EEF218-2F11-4C9D-AB21-E1423B2BD3B2}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45292</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45323</v>
+      </c>
+      <c r="C3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45352</v>
+      </c>
+      <c r="C4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45383</v>
+      </c>
+      <c r="C5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45413</v>
+      </c>
+      <c r="C6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45444</v>
+      </c>
+      <c r="C7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45474</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45505</v>
+      </c>
+      <c r="C9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45536</v>
+      </c>
+      <c r="C10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45566</v>
+      </c>
+      <c r="C11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45597</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45627</v>
+      </c>
+      <c r="C13">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1486AC64-CEC0-4C48-858E-1C461A5E2CBD}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45292</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45323</v>
+      </c>
+      <c r="C3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45352</v>
+      </c>
+      <c r="C4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45383</v>
+      </c>
+      <c r="C5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45413</v>
+      </c>
+      <c r="C6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45444</v>
+      </c>
+      <c r="C7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45474</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45505</v>
+      </c>
+      <c r="C9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45536</v>
+      </c>
+      <c r="C10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45566</v>
+      </c>
+      <c r="C11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45597</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45627</v>
+      </c>
+      <c r="C13">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3754CF3B-9FFE-4A18-895F-BA80F1AEE95B}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45292</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45323</v>
+      </c>
+      <c r="C3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45352</v>
+      </c>
+      <c r="C4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45383</v>
+      </c>
+      <c r="C5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45413</v>
+      </c>
+      <c r="C6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45444</v>
+      </c>
+      <c r="C7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45474</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45505</v>
+      </c>
+      <c r="C9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45536</v>
+      </c>
+      <c r="C10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45566</v>
+      </c>
+      <c r="C11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45597</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45627</v>
+      </c>
+      <c r="C13">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D57E95-220B-4B4C-91F8-4BAD4C905A15}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45292</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45323</v>
+      </c>
+      <c r="C3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45352</v>
+      </c>
+      <c r="C4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45383</v>
+      </c>
+      <c r="C5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45413</v>
+      </c>
+      <c r="C6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45444</v>
+      </c>
+      <c r="C7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45474</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45505</v>
+      </c>
+      <c r="C9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45536</v>
+      </c>
+      <c r="C10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45566</v>
+      </c>
+      <c r="C11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45597</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45627</v>
+      </c>
+      <c r="C13">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A04057-D834-4C67-A44F-52CFFAB4B71C}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45292</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45323</v>
+      </c>
+      <c r="C3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45352</v>
+      </c>
+      <c r="C4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45383</v>
+      </c>
+      <c r="C5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45413</v>
+      </c>
+      <c r="C6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45444</v>
+      </c>
+      <c r="C7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45474</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45505</v>
+      </c>
+      <c r="C9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45536</v>
+      </c>
+      <c r="C10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45566</v>
+      </c>
+      <c r="C11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45597</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45627</v>
+      </c>
+      <c r="C13">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E027E7-34E6-4F13-8359-B123F7184648}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45292</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45323</v>
+      </c>
+      <c r="C3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45352</v>
+      </c>
+      <c r="C4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45383</v>
+      </c>
+      <c r="C5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45413</v>
+      </c>
+      <c r="C6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45444</v>
+      </c>
+      <c r="C7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45474</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45505</v>
+      </c>
+      <c r="C9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45536</v>
+      </c>
+      <c r="C10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45566</v>
+      </c>
+      <c r="C11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45597</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45627</v>
+      </c>
+      <c r="C13">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF7879B-EAD2-408F-806D-581B03090C58}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45292</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45323</v>
+      </c>
+      <c r="C3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45352</v>
+      </c>
+      <c r="C4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45383</v>
+      </c>
+      <c r="C5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45413</v>
+      </c>
+      <c r="C6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45444</v>
+      </c>
+      <c r="C7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45474</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45505</v>
+      </c>
+      <c r="C9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45536</v>
+      </c>
+      <c r="C10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45566</v>
+      </c>
+      <c r="C11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45597</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45627</v>
+      </c>
+      <c r="C13">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>